--- a/Project Outputs for VCTS_mainboard/BOM/Indvidual Comp BOM-VCTS_mainboard(Debug).xlsx
+++ b/Project Outputs for VCTS_mainboard/BOM/Indvidual Comp BOM-VCTS_mainboard(Debug).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\Documents\GitHub\VCTS_mainboard\Project Outputs for VCTS_mainboard\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{62770F52-62D1-4468-A4D9-44F72F0F796D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D241D8B7-891B-4D38-B985-12AC4B12C9F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4290" yWindow="4290" windowWidth="28800" windowHeight="15345" xr2:uid="{619B72B6-692A-4255-8F70-87BA073583DB}"/>
+    <workbookView xWindow="4290" yWindow="4290" windowWidth="28800" windowHeight="15345" xr2:uid="{0C722874-1FDF-45F7-BBDF-D00ED285BC00}"/>
   </bookViews>
   <sheets>
     <sheet name="Indvidual Comp BOM-VCTS_mainboa" sheetId="1" r:id="rId1"/>
@@ -2513,7 +2513,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAF030CA-29E9-4137-A0EC-9B2295F0A752}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDE1739B-EACD-4D31-9B92-CF20EFC477D5}">
   <dimension ref="A1:J528"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
